--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/20.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/20.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1118899142181737</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.875113025127206</v>
+        <v>-1.955210858001145</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3945091590914249</v>
+        <v>0.401553742907865</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1926779442722026</v>
+        <v>-0.1662494714280325</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.11457365719814</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.942130499167606</v>
+        <v>-2.03630347149886</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3272550358284468</v>
+        <v>0.3372266289726008</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1725023782060536</v>
+        <v>-0.168942881136552</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1221915291582947</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.02801525942253</v>
+        <v>-2.141033560823946</v>
       </c>
       <c r="F4" t="n">
-        <v>0.264783910512527</v>
+        <v>0.2972945123452287</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1882267431732953</v>
+        <v>-0.1881230566582481</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1355241967723171</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.049775399406871</v>
+        <v>-2.15612726781143</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2385066979961904</v>
+        <v>0.2845977936173644</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2101844974569022</v>
+        <v>-0.2204287251435625</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1507001608111883</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.00188503778929</v>
+        <v>-2.084132231128089</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2490388082422759</v>
+        <v>0.282451482755888</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2029166826727723</v>
+        <v>-0.2346288983396108</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.158267286894765</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.858387780329421</v>
+        <v>-1.903957393771975</v>
       </c>
       <c r="F7" t="n">
-        <v>0.302377591265247</v>
+        <v>0.3641113224829785</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1749115648792085</v>
+        <v>-0.2061029082881042</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1478698038969519</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.503293792088732</v>
+        <v>-1.534527220024323</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3341410402689324</v>
+        <v>0.4036799263870087</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1464776728498907</v>
+        <v>-0.1850923608154871</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1115122037484509</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.098037487709576</v>
+        <v>-1.145351474287629</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2876534962078722</v>
+        <v>0.3890204829213691</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1093719286385691</v>
+        <v>-0.1554569250529756</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04612614433814442</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6287029170312682</v>
+        <v>-0.6867990813328743</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2759186223872395</v>
+        <v>0.3866058069621236</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06219212460939987</v>
+        <v>-0.1060612792051807</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0463932333326525</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03549155113721559</v>
+        <v>-0.07698880022730777</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2237453977775339</v>
+        <v>0.3730771564311749</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03310981089451442</v>
+        <v>-0.03071106887904886</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1637489969915262</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7495439850264695</v>
+        <v>0.5801348575356359</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1337448927959137</v>
+        <v>0.3091983341933206</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1236757123434801</v>
+        <v>0.06444265590041566</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3031148163732288</v>
       </c>
       <c r="E13" t="n">
-        <v>1.477584339716263</v>
+        <v>1.250119912609166</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009977959308167578</v>
+        <v>0.20738000617903</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2646930323316916</v>
+        <v>0.191608067399002</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4585961101954656</v>
       </c>
       <c r="E14" t="n">
-        <v>2.172837188586112</v>
+        <v>1.915484208635652</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2186032325580556</v>
+        <v>0.02964363168855521</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4048479244829813</v>
+        <v>0.3390362636205123</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6234623474457496</v>
       </c>
       <c r="E15" t="n">
-        <v>2.863338145463416</v>
+        <v>2.58442507951059</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4824524776365585</v>
+        <v>-0.2029581572787912</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5778964486519705</v>
+        <v>0.4883747314015975</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7919772446672715</v>
       </c>
       <c r="E16" t="n">
-        <v>3.504422109269239</v>
+        <v>3.213974223477754</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7749301794402617</v>
+        <v>-0.4238854545725029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7495635024881254</v>
+        <v>0.6510295973181232</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9570355342908913</v>
       </c>
       <c r="E17" t="n">
-        <v>4.086703620629782</v>
+        <v>3.842015643531997</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.057365537301308</v>
+        <v>-0.6911923399674905</v>
       </c>
       <c r="G17" t="n">
-        <v>0.917076996515626</v>
+        <v>0.810759283668965</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.111291703356131</v>
       </c>
       <c r="E18" t="n">
-        <v>4.62588203776454</v>
+        <v>4.396716541889992</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.421557102356371</v>
+        <v>-1.034131828961944</v>
       </c>
       <c r="G18" t="n">
-        <v>1.125900417979273</v>
+        <v>1.009861179465924</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.251669297913065</v>
       </c>
       <c r="E19" t="n">
-        <v>5.057671721344267</v>
+        <v>4.854823082830045</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.778538185170919</v>
+        <v>-1.376989588585714</v>
       </c>
       <c r="G19" t="n">
-        <v>1.341314032355182</v>
+        <v>1.20329020304845</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.377103310408891</v>
       </c>
       <c r="E20" t="n">
-        <v>5.411690419431849</v>
+        <v>5.246767868439174</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.080688618987169</v>
+        <v>-1.655066453290719</v>
       </c>
       <c r="G20" t="n">
-        <v>1.526199287097821</v>
+        <v>1.397752432257387</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.488195201071399</v>
       </c>
       <c r="E21" t="n">
-        <v>5.750942937935362</v>
+        <v>5.628628225578952</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.430259775499905</v>
+        <v>-1.998870199884125</v>
       </c>
       <c r="G21" t="n">
-        <v>1.716853171601143</v>
+        <v>1.577109365985981</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.584936714471838</v>
       </c>
       <c r="E22" t="n">
-        <v>5.969615358487135</v>
+        <v>5.891271047558847</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.757998211467767</v>
+        <v>-2.358324511042885</v>
       </c>
       <c r="G22" t="n">
-        <v>1.951939777405561</v>
+        <v>1.80803021356821</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.663392541471379</v>
       </c>
       <c r="E23" t="n">
-        <v>6.043518227047344</v>
+        <v>6.023554303456026</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.000951574160881</v>
+        <v>-2.638654422727797</v>
       </c>
       <c r="G23" t="n">
-        <v>2.051777083061773</v>
+        <v>1.92857798572408</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.719154482676485</v>
       </c>
       <c r="E24" t="n">
-        <v>6.109610451421117</v>
+        <v>6.107579415567546</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.249419839613152</v>
+        <v>-2.881091182607706</v>
       </c>
       <c r="G24" t="n">
-        <v>2.198240384772669</v>
+        <v>2.073664696467554</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.75048212675889</v>
       </c>
       <c r="E25" t="n">
-        <v>6.155064179935089</v>
+        <v>6.175975920258074</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.395873382593218</v>
+        <v>-3.090510191612197</v>
       </c>
       <c r="G25" t="n">
-        <v>2.267041876792556</v>
+        <v>2.159445770207431</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.756758029067394</v>
       </c>
       <c r="E26" t="n">
-        <v>6.146308158699695</v>
+        <v>6.204914216687062</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.539506042443326</v>
+        <v>-3.25502988999788</v>
       </c>
       <c r="G26" t="n">
-        <v>2.321580983707368</v>
+        <v>2.262998102705717</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.736530538211674</v>
       </c>
       <c r="E27" t="n">
-        <v>6.060544772659443</v>
+        <v>6.154411564810969</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.655472090475464</v>
+        <v>-3.395370807955578</v>
       </c>
       <c r="G27" t="n">
-        <v>2.332017946327881</v>
+        <v>2.257381953114221</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.688749088278213</v>
       </c>
       <c r="E28" t="n">
-        <v>5.885640259871109</v>
+        <v>6.020741349294864</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.69364794051414</v>
+        <v>-3.439569014756465</v>
       </c>
       <c r="G28" t="n">
-        <v>2.324054821972258</v>
+        <v>2.276333408382136</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.613422945977921</v>
       </c>
       <c r="E29" t="n">
-        <v>5.709726938283435</v>
+        <v>5.866529005385885</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.651423741983549</v>
+        <v>-3.442777197516159</v>
       </c>
       <c r="G29" t="n">
-        <v>2.291504575295567</v>
+        <v>2.244743176850647</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.512396303872423</v>
       </c>
       <c r="E30" t="n">
-        <v>5.520819866598319</v>
+        <v>5.725947168760873</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.662494717147541</v>
+        <v>-3.473460172040986</v>
       </c>
       <c r="G30" t="n">
-        <v>2.213334701680829</v>
+        <v>2.209808140327872</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.389477849477606</v>
       </c>
       <c r="E31" t="n">
-        <v>5.324440046781686</v>
+        <v>5.555684152322591</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.553369844386147</v>
+        <v>-3.393622775296018</v>
       </c>
       <c r="G31" t="n">
-        <v>2.087231772001138</v>
+        <v>2.070300983935289</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.251517679635548</v>
       </c>
       <c r="E32" t="n">
-        <v>5.060732303300189</v>
+        <v>5.272762687682177</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.459637234783506</v>
+        <v>-3.309516848694829</v>
       </c>
       <c r="G32" t="n">
-        <v>1.980127871402149</v>
+        <v>1.966262544657635</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.105078989229302</v>
       </c>
       <c r="E33" t="n">
-        <v>4.686184895074621</v>
+        <v>4.922096113634002</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.308436984136647</v>
+        <v>-3.172793370270925</v>
       </c>
       <c r="G33" t="n">
-        <v>1.8247133738393</v>
+        <v>1.82096785096339</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9542939883138817</v>
       </c>
       <c r="E34" t="n">
-        <v>4.331891732682502</v>
+        <v>4.558297947415441</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.173322476458003</v>
+        <v>-3.015935800386889</v>
       </c>
       <c r="G34" t="n">
-        <v>1.665431369265191</v>
+        <v>1.639987308393292</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8032621241436845</v>
       </c>
       <c r="E35" t="n">
-        <v>3.975689518572161</v>
+        <v>4.191459936543969</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.010668830382831</v>
+        <v>-2.880294626203873</v>
       </c>
       <c r="G35" t="n">
-        <v>1.519857941821671</v>
+        <v>1.51335740724889</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6551308564625238</v>
       </c>
       <c r="E36" t="n">
-        <v>3.617050061437536</v>
+        <v>3.795589701459288</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.870592617998842</v>
+        <v>-2.744626920471419</v>
       </c>
       <c r="G36" t="n">
-        <v>1.428663212154978</v>
+        <v>1.431543257590583</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5118488040145901</v>
       </c>
       <c r="E37" t="n">
-        <v>3.313351039023022</v>
+        <v>3.462546175445071</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.782617049664025</v>
+        <v>-2.662364479115702</v>
       </c>
       <c r="G37" t="n">
-        <v>1.307934293558114</v>
+        <v>1.319098891545987</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3760965493332579</v>
       </c>
       <c r="E38" t="n">
-        <v>2.965099750854769</v>
+        <v>3.116406432659721</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.67903666081461</v>
+        <v>-2.579540300816699</v>
       </c>
       <c r="G38" t="n">
-        <v>1.181072012635872</v>
+        <v>1.19839314993484</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2505712376731591</v>
       </c>
       <c r="E39" t="n">
-        <v>2.615383433220968</v>
+        <v>2.774531255246192</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.56478327004278</v>
+        <v>-2.450508532047264</v>
       </c>
       <c r="G39" t="n">
-        <v>1.055729044119408</v>
+        <v>1.063168856534381</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.1357250921990064</v>
       </c>
       <c r="E40" t="n">
-        <v>2.295784998604985</v>
+        <v>2.466650616671893</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.486354180140424</v>
+        <v>-2.373563989072113</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9511740020285494</v>
+        <v>0.9614676332900264</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.03254442135743273</v>
       </c>
       <c r="E41" t="n">
-        <v>1.960657983558997</v>
+        <v>2.108034946443661</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.406058732967219</v>
+        <v>-2.291490623126187</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8110008122569573</v>
+        <v>0.8202941736085675</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.05768341040345695</v>
       </c>
       <c r="E42" t="n">
-        <v>1.648564012949723</v>
+        <v>1.770580474095202</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.320330722326219</v>
+        <v>-2.204257328254973</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7045190307482511</v>
+        <v>0.7383806068799498</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.1366842749171675</v>
       </c>
       <c r="E43" t="n">
-        <v>1.353492928428487</v>
+        <v>1.492820768142107</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.26356113549654</v>
+        <v>-2.123900279093416</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5985013988745501</v>
+        <v>0.6234977779697158</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.2060652355682744</v>
       </c>
       <c r="E44" t="n">
-        <v>1.098702835161723</v>
+        <v>1.227439402323613</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.158362017171035</v>
+        <v>-2.041762871476432</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5151087745048184</v>
+        <v>0.5500614987272194</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.2671281662182574</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8473844103870092</v>
+        <v>0.9857382067798619</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.048559217577435</v>
+        <v>-1.936982158735176</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4095321152804063</v>
+        <v>0.4612228926348043</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.3232856931632218</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6424919276850038</v>
+        <v>0.7973861629105872</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.959718171802313</v>
+        <v>-1.846077141389938</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3213918683628678</v>
+        <v>0.3688272291555945</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.3768285323751764</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4528248948366603</v>
+        <v>0.5922033579664497</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.871659654255459</v>
+        <v>-1.759168934239431</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2648430728181715</v>
+        <v>0.3189326681942196</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.4281162635899816</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3040878088428486</v>
+        <v>0.4623817419206256</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.763676857961276</v>
+        <v>-1.660966825917579</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1863151757661823</v>
+        <v>0.2265406642390703</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.4779746989752908</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1866000087222237</v>
+        <v>0.3381543183219346</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.634011991529376</v>
+        <v>-1.519527440821058</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1271461609941765</v>
+        <v>0.156355262203641</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.5264912488943695</v>
       </c>
       <c r="E50" t="n">
-        <v>0.05308715274072031</v>
+        <v>0.2218540337589382</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.533592821547545</v>
+        <v>-1.418803920421531</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08555323036401943</v>
+        <v>0.1354788972799085</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.5730174693790568</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.09367440018110439</v>
+        <v>0.05209481179965122</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.436329991067886</v>
+        <v>-1.308514404127886</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03636068810158157</v>
+        <v>0.08496953627637155</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.6179190575021888</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.162016621931401</v>
+        <v>-0.01676157308114403</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.355273362890099</v>
+        <v>-1.222311265279699</v>
       </c>
       <c r="G52" t="n">
-        <v>0.002595479436809084</v>
+        <v>0.04766251824172309</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.6615481834485217</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2829333960967035</v>
+        <v>-0.1405608323647578</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.265439976173908</v>
+        <v>-1.12309973823783</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.04759367321143511</v>
+        <v>0.003542686247798819</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.7033544308865389</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3959760943251885</v>
+        <v>-0.2635055927802476</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.220083834968215</v>
+        <v>-1.04873393988397</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1147569182935778</v>
+        <v>-0.07933638491211104</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.7432988606345921</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.469729532319594</v>
+        <v>-0.3364575950054061</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.162604910391479</v>
+        <v>-0.9740168272203023</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1399515216086865</v>
+        <v>-0.09850436202027225</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.7814276267555227</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5186774963906559</v>
+        <v>-0.3854939975745965</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.115697740904816</v>
+        <v>-0.9021486540377252</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1849380508842698</v>
+        <v>-0.142622974172843</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.8169961962426208</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.584060383017371</v>
+        <v>-0.4792705214659638</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.111517954507061</v>
+        <v>-0.8927699037913702</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2220968581944685</v>
+        <v>-0.1904072095926696</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.8496787287085895</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6520128654552255</v>
+        <v>-0.5554087493064541</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.054809359745057</v>
+        <v>-0.8216818191543538</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2641996825103869</v>
+        <v>-0.231510373919398</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.8797497889062637</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7393193508076495</v>
+        <v>-0.6651749536594487</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.032759507439261</v>
+        <v>-0.8088960520076843</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3071887215696203</v>
+        <v>-0.2603437639919857</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.9075644803042284</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8349292962533217</v>
+        <v>-0.8096334461058727</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.048007524357963</v>
+        <v>-0.8074340721455192</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3307170215958534</v>
+        <v>-0.289241195735632</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.933679785659963</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9501683188387765</v>
+        <v>-0.9065516714031694</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.056321353102715</v>
+        <v>-0.8149568337725297</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3844199272628431</v>
+        <v>-0.3366356918430165</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.9585037210567715</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.034559993277022</v>
+        <v>-1.007292879502323</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.032395994715919</v>
+        <v>-0.768543090113356</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3794606622402046</v>
+        <v>-0.3372010883103619</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.9824717347402303</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.109790659150511</v>
+        <v>-1.120223352326286</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.055216786757125</v>
+        <v>-0.7833647724790106</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4307190058347882</v>
+        <v>-0.3836081228420914</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.005702142252328</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.156693559192436</v>
+        <v>-1.15382327248766</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.064851703687714</v>
+        <v>-0.7916956790027123</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4577573993557064</v>
+        <v>-0.401187256587324</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.028658326020593</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.2059562423327</v>
+        <v>-1.24869643375582</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.115714818683765</v>
+        <v>-0.8351726546033441</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4982969969771195</v>
+        <v>-0.448452449511238</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.051979023197453</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.282745255535281</v>
+        <v>-1.302481678714171</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.140724616033819</v>
+        <v>-0.8525755212729964</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5397777022027549</v>
+        <v>-0.4977468485266928</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.075063769192323</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.333496755047487</v>
+        <v>-1.355881453804817</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.188582651855532</v>
+        <v>-0.9140189302485958</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5801654295756579</v>
+        <v>-0.5329752568949838</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.097647205581455</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.383726162460396</v>
+        <v>-1.42409681205435</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.249128867515635</v>
+        <v>-0.9731056057292407</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6139397870505815</v>
+        <v>-0.5736258600795652</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.119302530378179</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.436914295076211</v>
+        <v>-1.477763122480735</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.314157390229159</v>
+        <v>-1.043878971297055</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5916514557601773</v>
+        <v>-0.5505324334958535</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.138800244386533</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.472648327685526</v>
+        <v>-1.523377260132692</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.367024704569004</v>
+        <v>-1.081449475064059</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6442010014274364</v>
+        <v>-0.5851405525358917</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.155031730467978</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.463680054054622</v>
+        <v>-1.523881054611686</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.449087701863425</v>
+        <v>-1.193802962927818</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6524629869146656</v>
+        <v>-0.6055631364761237</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.167306248278224</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.539647504105623</v>
+        <v>-1.608797870752611</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.498422355643545</v>
+        <v>-1.265310063069761</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6508967106167767</v>
+        <v>-0.5993413356526168</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.174085592251525</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.454194567689837</v>
+        <v>-1.53607336893988</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.608970478304131</v>
+        <v>-1.365660312015119</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6778210489711429</v>
+        <v>-0.6432495251717095</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.173588750929463</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.431587247885493</v>
+        <v>-1.486863748898493</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.714625817295843</v>
+        <v>-1.472509875691904</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6989554103411398</v>
+        <v>-0.6401285610687897</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.165069909649269</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.35607418873867</v>
+        <v>-1.42464818034613</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.777547064071203</v>
+        <v>-1.512309029611745</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6877993512427412</v>
+        <v>-0.6498348387185583</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.147220621230631</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.283368594466917</v>
+        <v>-1.335123413492374</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.836536152243568</v>
+        <v>-1.571037071734462</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6581334194463924</v>
+        <v>-0.6002531670643552</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.119090496169908</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.192681928723956</v>
+        <v>-1.236285767825351</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.864386350185238</v>
+        <v>-1.619526985377286</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6155908423225386</v>
+        <v>-0.5752732558274617</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.080613239996594</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.059474643001503</v>
+        <v>-1.118889455806238</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.908567174246837</v>
+        <v>-1.672867598162288</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.611975232550776</v>
+        <v>-0.5514796403068432</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.031634322922457</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8173855379073405</v>
+        <v>-0.8606569702399082</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.950894449371799</v>
+        <v>-1.698916090424844</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5402735677129511</v>
+        <v>-0.4681809437213307</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.9718973618192663</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6410958952621121</v>
+        <v>-0.6805309265379346</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.978173151639356</v>
+        <v>-1.755715563367683</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4984409382568321</v>
+        <v>-0.4437615495863687</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.9024687401292426</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3495995558272965</v>
+        <v>-0.382413288236342</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.959313794393629</v>
+        <v>-1.732716674488868</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4728145111025857</v>
+        <v>-0.4098700873415093</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.8241408643763067</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1032416159165744</v>
+        <v>-0.1267723556255145</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.958902097936824</v>
+        <v>-1.76588355096975</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3732711872125654</v>
+        <v>-0.2981234705511139</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.7368147736169144</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2005379160272703</v>
+        <v>0.1644196333916038</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.934085035520622</v>
+        <v>-1.749471195479137</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3255979573559069</v>
+        <v>-0.2454031470943653</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.6415808983915769</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5501420082565501</v>
+        <v>0.5021577188547501</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.839706519921305</v>
+        <v>-1.728678999608795</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2193875905483536</v>
+        <v>-0.1431761722266535</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5398791722638511</v>
       </c>
       <c r="E85" t="n">
-        <v>0.843615710525383</v>
+        <v>0.7778260068072769</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.764036711160557</v>
+        <v>-1.687977773008044</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1401387672564482</v>
+        <v>-0.05501213840272173</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4329151686031608</v>
       </c>
       <c r="E86" t="n">
-        <v>1.134422229674797</v>
+        <v>1.041685010616608</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.60723952342352</v>
+        <v>-1.567298257985996</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.08818084464563462</v>
+        <v>-0.00682169581218093</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3245311680770582</v>
       </c>
       <c r="E87" t="n">
-        <v>1.399828602241037</v>
+        <v>1.284279739951794</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.425225775227011</v>
+        <v>-1.425989395914299</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0176496175864892</v>
+        <v>0.07539012212736655</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2197192176889508</v>
       </c>
       <c r="E88" t="n">
-        <v>1.662422630566792</v>
+        <v>1.54377903076373</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.291670834718812</v>
+        <v>-1.338175456558821</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01074828912290038</v>
+        <v>0.1053518654519381</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.123803394729123</v>
       </c>
       <c r="E89" t="n">
-        <v>1.867165072782318</v>
+        <v>1.751206953718977</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.072461683971499</v>
+        <v>-1.188698536784114</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05831539278180466</v>
+        <v>0.1455175816985048</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04281091303225743</v>
       </c>
       <c r="E90" t="n">
-        <v>2.054460734039465</v>
+        <v>1.912582815976362</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.874301505699439</v>
+        <v>-1.036433059675315</v>
       </c>
       <c r="G90" t="n">
-        <v>0.100529832581568</v>
+        <v>0.1929242762194243</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.01833920675221995</v>
       </c>
       <c r="E91" t="n">
-        <v>2.157109774015487</v>
+        <v>2.031185551094082</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.622440861443096</v>
+        <v>-0.8063929375503103</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08789532576273199</v>
+        <v>0.1875429460884762</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.05635411230453365</v>
       </c>
       <c r="E92" t="n">
-        <v>2.273328939128475</v>
+        <v>2.172244345688313</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4228693267250407</v>
+        <v>-0.6367355723440402</v>
       </c>
       <c r="G92" t="n">
-        <v>0.08378872984618731</v>
+        <v>0.2080027351899898</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07005400676871804</v>
       </c>
       <c r="E93" t="n">
-        <v>2.269881667463495</v>
+        <v>2.155158027849893</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2071184262148897</v>
+        <v>-0.4143273876471841</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05614163548987459</v>
+        <v>0.1725681736329579</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.06141414431645535</v>
       </c>
       <c r="E94" t="n">
-        <v>2.280984663463017</v>
+        <v>2.171097694816026</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.08328257169067096</v>
+        <v>-0.2654951540277998</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01422178737698056</v>
+        <v>0.1323036502367581</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.03679638618184451</v>
       </c>
       <c r="E95" t="n">
-        <v>2.254006652089097</v>
+        <v>2.129899382863725</v>
       </c>
       <c r="F95" t="n">
-        <v>0.04570711255206882</v>
+        <v>-0.1313754269729321</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01152174454720147</v>
+        <v>0.1018259140196576</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.00557270046395707</v>
       </c>
       <c r="E96" t="n">
-        <v>2.141913600354309</v>
+        <v>2.030048658952624</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1265764950820938</v>
+        <v>-0.01812230611096895</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.04770162917121951</v>
+        <v>0.05152026652215455</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02240493058814998</v>
       </c>
       <c r="E97" t="n">
-        <v>1.977534488684616</v>
+        <v>1.867480401772197</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1566815697657012</v>
+        <v>0.03292012556404578</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03667792285967512</v>
+        <v>0.06305142683675334</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.03803015402060724</v>
       </c>
       <c r="E98" t="n">
-        <v>1.786002318406777</v>
+        <v>1.671018242664203</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1767369814585308</v>
+        <v>0.07135976629541538</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05441380621883189</v>
+        <v>0.03780132074006048</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.03715070502676333</v>
       </c>
       <c r="E99" t="n">
-        <v>1.581430044060064</v>
+        <v>1.48564993074558</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1825403766977886</v>
+        <v>0.09262526061091317</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05137030204185909</v>
+        <v>0.02764309186882158</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.0231906687176938</v>
       </c>
       <c r="E100" t="n">
-        <v>1.456443269218822</v>
+        <v>1.347724908588481</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1908340780602087</v>
+        <v>0.1143292878929928</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.08696649257822923</v>
+        <v>-0.0006871136454489634</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.004198897307512306</v>
       </c>
       <c r="E101" t="n">
-        <v>1.305572070777069</v>
+        <v>1.185395130392662</v>
       </c>
       <c r="F101" t="n">
-        <v>0.215308365056078</v>
+        <v>0.1484189743577953</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09063516544886881</v>
+        <v>-0.03213279397654858</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.008921445285799049</v>
       </c>
       <c r="E102" t="n">
-        <v>1.139996904660274</v>
+        <v>1.026373561947524</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2077453486644021</v>
+        <v>0.1271607990904184</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1151704445124129</v>
+        <v>-0.04087295727434825</v>
       </c>
     </row>
   </sheetData>
